--- a/cai-dat-kubernetes-cluster/cai-dat-kubernetes-cluster.xlsx
+++ b/cai-dat-kubernetes-cluster/cai-dat-kubernetes-cluster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kubernetes\cai-dat-kubernetes-cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F29B9B-FDDA-43F9-9F9F-26438701A573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AA8B7E-AFFB-4DC1-B9B0-D7082749CD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kiến trúc - các thành phần" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>setenforce 0</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Khởi tạo một Cluster</t>
   </si>
   <si>
-    <t>kubeadm init --apiserver-advertise-address=172.31.24.185 --pod-network-cidr=192.168.0.0/16</t>
-  </si>
-  <si>
     <t>Deploy Calico network</t>
   </si>
   <si>
@@ -189,13 +186,41 @@
   </si>
   <si>
     <t>kubectl config view</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kubeadm init </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--apiserver-advertise-address=172.31.24.185</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --pod-network-cidr=192.168.0.0/16</t>
+    </r>
+  </si>
+  <si>
+    <t>172.31.24.185 is private IP of master.xtl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +233,13 @@
       <color rgb="FF24292F"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2554,13 +2586,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>149389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2604,13 +2636,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>132267</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>161714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2648,13 +2680,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>465600</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>133143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2692,13 +2724,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>379962</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>47429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2736,13 +2768,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>13792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2780,13 +2812,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>503543</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>37881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2824,13 +2856,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>134275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2868,13 +2900,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>579886</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>75976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3323,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137DB3B1-B828-4685-AE31-AA0306D5EBB5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -3346,7 +3378,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3382,12 +3414,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3400,7 +3432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
@@ -3431,7 +3463,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A272" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J295" sqref="J295"/>
+      <selection activeCell="Q288" sqref="Q288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7341ED20-C406-405E-98C4-B0DDB52C73C5}">
   <dimension ref="A2:B276"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6384EA-3E01-4D78-A995-CDE249D5E4DC}">
-  <dimension ref="A2:B140"/>
+  <dimension ref="A2:B141"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,67 +3686,73 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3730,7 +3768,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3789,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3810,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
